--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD0A2E4-F677-4E1B-B596-6D3D36C341B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE1ECEB-36E4-4B49-B453-47F960BE7D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E13D4C40-FF78-41C2-A8C0-E05BF8D5CB0E}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{E13D4C40-FF78-41C2-A8C0-E05BF8D5CB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>andaikan</t>
   </si>
@@ -100,6 +100,180 @@
   </si>
   <si>
     <t>yang</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>dari</t>
+  </si>
+  <si>
+    <t>hingga</t>
+  </si>
+  <si>
+    <t>hampir</t>
+  </si>
+  <si>
+    <t>demi</t>
+  </si>
+  <si>
+    <t>atas</t>
+  </si>
+  <si>
+    <t>kepada</t>
+  </si>
+  <si>
+    <t>akan</t>
+  </si>
+  <si>
+    <t>terhadap</t>
+  </si>
+  <si>
+    <t>oleh</t>
+  </si>
+  <si>
+    <t>berkat</t>
+  </si>
+  <si>
+    <t>tentang</t>
+  </si>
+  <si>
+    <t>mengenai</t>
+  </si>
+  <si>
+    <t>sampai</t>
+  </si>
+  <si>
+    <t>untuk</t>
+  </si>
+  <si>
+    <t>buat</t>
+  </si>
+  <si>
+    <t>guna</t>
+  </si>
+  <si>
+    <t>bagi</t>
+  </si>
+  <si>
+    <t>pada</t>
+  </si>
+  <si>
+    <t>para</t>
+  </si>
+  <si>
+    <t>namun</t>
+  </si>
+  <si>
+    <t>menurut</t>
+  </si>
+  <si>
+    <t>antara</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>dua</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>seperti</t>
+  </si>
+  <si>
+    <t>kembali</t>
+  </si>
+  <si>
+    <t>ini</t>
+  </si>
+  <si>
+    <t>saat</t>
+  </si>
+  <si>
+    <t>harus</t>
+  </si>
+  <si>
+    <t>sementara</t>
+  </si>
+  <si>
+    <t>masih</t>
+  </si>
+  <si>
+    <t>belum</t>
+  </si>
+  <si>
+    <t>kami</t>
+  </si>
+  <si>
+    <t>sekitar</t>
+  </si>
+  <si>
+    <t>adalah</t>
+  </si>
+  <si>
+    <t>itu</t>
+  </si>
+  <si>
+    <t>dalam</t>
+  </si>
+  <si>
+    <t>bisa</t>
+  </si>
+  <si>
+    <t>hanya</t>
+  </si>
+  <si>
+    <t>kita</t>
+  </si>
+  <si>
+    <t>juga</t>
+  </si>
+  <si>
+    <t>secara</t>
+  </si>
+  <si>
+    <t>lain</t>
+  </si>
+  <si>
+    <t>anda</t>
+  </si>
+  <si>
+    <t>begitu</t>
+  </si>
+  <si>
+    <t>yaitu</t>
+  </si>
+  <si>
+    <t>yakni</t>
+  </si>
+  <si>
+    <t>daripada</t>
+  </si>
+  <si>
+    <t>itulah</t>
+  </si>
+  <si>
+    <t>lagi</t>
+  </si>
+  <si>
+    <t>maka</t>
+  </si>
+  <si>
+    <t>dimana</t>
+  </si>
+  <si>
+    <t>kemana</t>
+  </si>
+  <si>
+    <t>boleh</t>
+  </si>
+  <si>
+    <t>stopwords</t>
   </si>
 </sst>
 </file>
@@ -451,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E098A1-9E10-4D98-888A-BE63A52A0107}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,144 +638,494 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A23" r:id="rId1" tooltip="yang" display="https://id.wiktionary.org/wiki/yang" xr:uid="{C8422FA6-BCEE-4790-B5C8-1845D10A99AF}"/>
-    <hyperlink ref="A22" r:id="rId2" tooltip="tetapi" display="https://id.wiktionary.org/wiki/tetapi" xr:uid="{E59777D9-F4FB-4433-B902-797EE60A6380}"/>
-    <hyperlink ref="A21" r:id="rId3" tooltip="tanpa" display="https://id.wiktionary.org/wiki/tanpa" xr:uid="{0CF0D189-516C-4265-9185-42CEE10529B7}"/>
-    <hyperlink ref="A20" r:id="rId4" tooltip="sesudah" display="https://id.wiktionary.org/wiki/sesudah" xr:uid="{00083BD9-7429-42A3-92DD-F2F49AB96A64}"/>
-    <hyperlink ref="A19" r:id="rId5" tooltip="serta" display="https://id.wiktionary.org/wiki/serta" xr:uid="{E7F4D285-9F52-4026-8751-8EB43D7F5F7C}"/>
-    <hyperlink ref="A18" r:id="rId6" tooltip="sedangkan" display="https://id.wiktionary.org/wiki/sedangkan" xr:uid="{4ED7C75B-9A23-4B53-A2C4-A1AA689A869E}"/>
-    <hyperlink ref="A17" r:id="rId7" tooltip="padahal" display="https://id.wiktionary.org/wiki/padahal" xr:uid="{34BB5E39-F48E-4C1A-A830-C96CA1D2A049}"/>
-    <hyperlink ref="A16" r:id="rId8" tooltip="melainkan" display="https://id.wiktionary.org/wiki/melainkan" xr:uid="{A0DF7FA3-16EF-4B4E-89C5-19A6FE1CA3FB}"/>
-    <hyperlink ref="A15" r:id="rId9" tooltip="karena" display="https://id.wiktionary.org/wiki/karena" xr:uid="{ED127AD1-B08A-4BFB-820B-7A874EBE32D8}"/>
-    <hyperlink ref="A14" r:id="rId10" tooltip="kalau" display="https://id.wiktionary.org/wiki/kalau" xr:uid="{E9EF424F-417C-48F5-9E4F-C3A40C279AE5}"/>
-    <hyperlink ref="A13" r:id="rId11" tooltip="jikalau" display="https://id.wiktionary.org/wiki/jikalau" xr:uid="{36FA3475-EFAC-4658-91BB-5126149AAB41}"/>
-    <hyperlink ref="A12" r:id="rId12" tooltip="jika" display="https://id.wiktionary.org/wiki/jika" xr:uid="{1755120A-654A-4C7F-8EDC-7B7EC09D90E8}"/>
-    <hyperlink ref="A11" r:id="rId13" tooltip="ibarat" display="https://id.wiktionary.org/wiki/ibarat" xr:uid="{8305F840-2E49-41A1-916F-E0EA3E6707C6}"/>
-    <hyperlink ref="A10" r:id="rId14" tooltip="sehingga" display="https://id.wiktionary.org/wiki/sehingga" xr:uid="{7D9C13F2-3960-4D28-8AC2-E272C92F997B}"/>
-    <hyperlink ref="A9" r:id="rId15" tooltip="dengan" display="https://id.wiktionary.org/wiki/dengan" xr:uid="{598A076B-C933-4448-B2B7-8365CD71EE65}"/>
-    <hyperlink ref="A8" r:id="rId16" tooltip="dan" display="https://id.wiktionary.org/wiki/dan" xr:uid="{3849CEA7-BA91-40F9-9240-748F667A4C42}"/>
-    <hyperlink ref="A7" r:id="rId17" tooltip="biarpun" display="https://id.wiktionary.org/wiki/biarpun" xr:uid="{A8D1817D-4A12-416B-B171-2DADCAC5F9A0}"/>
-    <hyperlink ref="A6" r:id="rId18" tooltip="sebelum" display="https://id.wiktionary.org/wiki/sebelum" xr:uid="{AB0EA38C-9FF6-4CE0-AB4E-2F981DF09EC1}"/>
-    <hyperlink ref="A5" r:id="rId19" tooltip="bahwa" display="https://id.wiktionary.org/wiki/bahwa" xr:uid="{AC12F51A-96B9-4495-B068-4F8033B7A5DF}"/>
-    <hyperlink ref="A4" r:id="rId20" tooltip="atau" display="https://id.wiktionary.org/wiki/atau" xr:uid="{89BFB82E-642F-4A14-8E10-79D8189C698E}"/>
-    <hyperlink ref="A3" r:id="rId21" tooltip="apabila" display="https://id.wiktionary.org/wiki/apabila" xr:uid="{225B8AF0-1FAA-406F-A7E4-E985293BBCB8}"/>
-    <hyperlink ref="A2" r:id="rId22" tooltip="apa" display="https://id.wiktionary.org/wiki/apa" xr:uid="{F2130BDD-48A5-431B-AB54-80021A654F8B}"/>
-    <hyperlink ref="A1" r:id="rId23" tooltip="andaikan" display="https://id.wiktionary.org/wiki/andaikan" xr:uid="{7B5F6854-6249-4874-B90C-5E22A1E44F1E}"/>
+    <hyperlink ref="A24" r:id="rId1" tooltip="yang" display="https://id.wiktionary.org/wiki/yang" xr:uid="{C8422FA6-BCEE-4790-B5C8-1845D10A99AF}"/>
+    <hyperlink ref="A23" r:id="rId2" tooltip="tetapi" display="https://id.wiktionary.org/wiki/tetapi" xr:uid="{E59777D9-F4FB-4433-B902-797EE60A6380}"/>
+    <hyperlink ref="A22" r:id="rId3" tooltip="tanpa" display="https://id.wiktionary.org/wiki/tanpa" xr:uid="{0CF0D189-516C-4265-9185-42CEE10529B7}"/>
+    <hyperlink ref="A21" r:id="rId4" tooltip="sesudah" display="https://id.wiktionary.org/wiki/sesudah" xr:uid="{00083BD9-7429-42A3-92DD-F2F49AB96A64}"/>
+    <hyperlink ref="A20" r:id="rId5" tooltip="serta" display="https://id.wiktionary.org/wiki/serta" xr:uid="{E7F4D285-9F52-4026-8751-8EB43D7F5F7C}"/>
+    <hyperlink ref="A19" r:id="rId6" tooltip="sedangkan" display="https://id.wiktionary.org/wiki/sedangkan" xr:uid="{4ED7C75B-9A23-4B53-A2C4-A1AA689A869E}"/>
+    <hyperlink ref="A18" r:id="rId7" tooltip="padahal" display="https://id.wiktionary.org/wiki/padahal" xr:uid="{34BB5E39-F48E-4C1A-A830-C96CA1D2A049}"/>
+    <hyperlink ref="A17" r:id="rId8" tooltip="melainkan" display="https://id.wiktionary.org/wiki/melainkan" xr:uid="{A0DF7FA3-16EF-4B4E-89C5-19A6FE1CA3FB}"/>
+    <hyperlink ref="A16" r:id="rId9" tooltip="karena" display="https://id.wiktionary.org/wiki/karena" xr:uid="{ED127AD1-B08A-4BFB-820B-7A874EBE32D8}"/>
+    <hyperlink ref="A15" r:id="rId10" tooltip="kalau" display="https://id.wiktionary.org/wiki/kalau" xr:uid="{E9EF424F-417C-48F5-9E4F-C3A40C279AE5}"/>
+    <hyperlink ref="A14" r:id="rId11" tooltip="jikalau" display="https://id.wiktionary.org/wiki/jikalau" xr:uid="{36FA3475-EFAC-4658-91BB-5126149AAB41}"/>
+    <hyperlink ref="A13" r:id="rId12" tooltip="jika" display="https://id.wiktionary.org/wiki/jika" xr:uid="{1755120A-654A-4C7F-8EDC-7B7EC09D90E8}"/>
+    <hyperlink ref="A12" r:id="rId13" tooltip="ibarat" display="https://id.wiktionary.org/wiki/ibarat" xr:uid="{8305F840-2E49-41A1-916F-E0EA3E6707C6}"/>
+    <hyperlink ref="A11" r:id="rId14" tooltip="sehingga" display="https://id.wiktionary.org/wiki/sehingga" xr:uid="{7D9C13F2-3960-4D28-8AC2-E272C92F997B}"/>
+    <hyperlink ref="A10" r:id="rId15" tooltip="dengan" display="https://id.wiktionary.org/wiki/dengan" xr:uid="{598A076B-C933-4448-B2B7-8365CD71EE65}"/>
+    <hyperlink ref="A9" r:id="rId16" tooltip="dan" display="https://id.wiktionary.org/wiki/dan" xr:uid="{3849CEA7-BA91-40F9-9240-748F667A4C42}"/>
+    <hyperlink ref="A8" r:id="rId17" tooltip="biarpun" display="https://id.wiktionary.org/wiki/biarpun" xr:uid="{A8D1817D-4A12-416B-B171-2DADCAC5F9A0}"/>
+    <hyperlink ref="A7" r:id="rId18" tooltip="sebelum" display="https://id.wiktionary.org/wiki/sebelum" xr:uid="{AB0EA38C-9FF6-4CE0-AB4E-2F981DF09EC1}"/>
+    <hyperlink ref="A6" r:id="rId19" tooltip="bahwa" display="https://id.wiktionary.org/wiki/bahwa" xr:uid="{AC12F51A-96B9-4495-B068-4F8033B7A5DF}"/>
+    <hyperlink ref="A5" r:id="rId20" tooltip="atau" display="https://id.wiktionary.org/wiki/atau" xr:uid="{89BFB82E-642F-4A14-8E10-79D8189C698E}"/>
+    <hyperlink ref="A4" r:id="rId21" tooltip="apabila" display="https://id.wiktionary.org/wiki/apabila" xr:uid="{225B8AF0-1FAA-406F-A7E4-E985293BBCB8}"/>
+    <hyperlink ref="A3" r:id="rId22" tooltip="apa" display="https://id.wiktionary.org/wiki/apa" xr:uid="{F2130BDD-48A5-431B-AB54-80021A654F8B}"/>
+    <hyperlink ref="A2" r:id="rId23" tooltip="andaikan" display="https://id.wiktionary.org/wiki/andaikan" xr:uid="{7B5F6854-6249-4874-B90C-5E22A1E44F1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>

--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE1ECEB-36E4-4B49-B453-47F960BE7D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F62EF19-7794-4D11-970C-7142FB3E11FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{E13D4C40-FF78-41C2-A8C0-E05BF8D5CB0E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>andaikan</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>stopwords</t>
+  </si>
+  <si>
+    <t>yg</t>
+  </si>
+  <si>
+    <t>dgn</t>
+  </si>
+  <si>
+    <t>hny</t>
   </si>
 </sst>
 </file>
@@ -625,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E098A1-9E10-4D98-888A-BE63A52A0107}">
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,6 +1108,21 @@
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
